--- a/CompanyManagement/output.xlsx
+++ b/CompanyManagement/output.xlsx
@@ -12,24 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>直尺</t>
+    <t>8250</t>
   </si>
   <si>
-    <t>2021/11/22 15:02</t>
+    <t>2021/11/19 21:41</t>
   </si>
   <si>
     <t>入库</t>
   </si>
   <si>
-    <t>圆规</t>
+    <t>2021/11/19 21:54</t>
   </si>
   <si>
-    <t>数学</t>
+    <t>2021/11/19 21:56</t>
   </si>
   <si>
-    <t>语文</t>
+    <t>2021/11/19 21:42</t>
+  </si>
+  <si>
+    <t>2021/11/19 21:52</t>
   </si>
 </sst>
 </file>
@@ -75,7 +78,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -97,13 +100,13 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>2</v>
@@ -111,13 +114,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2123</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>2</v>
@@ -125,15 +128,43 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>1</v>
+      <c r="D4" s="0" t="s">
+        <v>2</v>
       </c>
-      <c r="D4" s="0" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>2</v>
       </c>
     </row>
